--- a/end_result/best_gen_alg.xlsx
+++ b/end_result/best_gen_alg.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="381" sheetId="1" r:id="rId1"/>
+    <sheet name="405" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -64,379 +64,379 @@
     <t>15.00-17.00</t>
   </si>
   <si>
+    <t>['hc_2_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Interactie_ontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_4_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Machine_Learning']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Architectuur_en_computerorganisatie']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Kansrekenen_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Databases_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Databases_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Databases_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Lineaire_Algebra']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_3_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>['hc_1_1_Analysemethoden_en_technieken']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_5_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Machine_Learning']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Architectuur_en_computerorganisatie']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_6_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Kansrekenen_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Lineaire_Algebra']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Interactie_ontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['hc_3_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
     <t>['pr_1_1_Compilerbouw']</t>
   </si>
   <si>
-    <t>['wc_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
     <t>['pr_1_1_Project_Genetic_Algorithms']</t>
   </si>
   <si>
-    <t>['hc_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Kansrekenen_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Interactie_ontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Databases_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Data_Mining']</t>
+    <t>['pr_1_3_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Technology_for_games']</t>
   </si>
   <si>
     <t>['hc_2_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Machine_Learning']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Lineaire_Algebra']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Kansrekenen_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Databases_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['pr_1_5_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_6_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Machine_Learning']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Calculus_2']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>['pr_1_2_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_4_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['hc_3_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Interactie_ontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Architectuur_en_computerorganisatie']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_3_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Analysemethoden_en_technieken']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Architectuur_en_computerorganisatie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Databases_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Lineaire_Algebra']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Bioinformatica']</t>
   </si>
 </sst>
 </file>
@@ -799,10 +799,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
@@ -819,10 +819,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>73</v>
@@ -839,10 +839,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
@@ -859,10 +859,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
         <v>75</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
         <v>76</v>
@@ -899,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>127</v>
@@ -919,10 +919,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>78</v>
@@ -942,16 +942,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -962,16 +962,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -982,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
@@ -1002,16 +1002,16 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
         <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
         <v>54</v>
@@ -1022,16 +1022,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
         <v>55</v>
@@ -1042,16 +1042,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -1062,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -1085,10 +1085,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>86</v>
@@ -1105,10 +1105,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
@@ -1125,10 +1125,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
@@ -1145,10 +1145,10 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>89</v>
@@ -1165,13 +1165,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -1185,13 +1185,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -1205,13 +1205,13 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
@@ -1228,16 +1228,16 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
@@ -1248,16 +1248,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
         <v>66</v>
@@ -1268,16 +1268,16 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
         <v>67</v>
@@ -1288,16 +1288,16 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
         <v>68</v>
@@ -1308,16 +1308,16 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
         <v>69</v>
@@ -1328,16 +1328,16 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
         <v>70</v>
@@ -1348,16 +1348,16 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>71</v>

--- a/end_result/best_gen_alg.xlsx
+++ b/end_result/best_gen_alg.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="405" sheetId="1" r:id="rId1"/>
+    <sheet name="256" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -64,379 +64,379 @@
     <t>15.00-17.00</t>
   </si>
   <si>
+    <t>['wc_1_1_Databases_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['pr_1_5_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Interactie_ontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Bioinformatica']</t>
+  </si>
+  <si>
     <t>['hc_2_1_Data_Mining']</t>
   </si>
   <si>
-    <t>['wc_1_1_Collectieve_Intelligentie']</t>
+    <t>['hc_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Databases_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Architectuur_en_computerorganisatie']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Lineaire_Algebra']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_4_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>['pr_1_2_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Machine_Learning']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Kansrekenen_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Lineaire_Algebra']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_3_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Interactie_ontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Machine_Learning']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Analysemethoden_en_technieken']</t>
+  </si>
+  <si>
+    <t>['hc_3_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Compilerbouw']</t>
   </si>
   <si>
     <t>['wc_1_2_Collectieve_Intelligentie']</t>
   </si>
   <si>
-    <t>['pr_1_3_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Interactie_ontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_4_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Machine_Learning']</t>
+    <t>['pr_1_3_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Kansrekenen_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Databases_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_6_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Informatie_en_organisatieontwerp']</t>
   </si>
   <si>
     <t>['hc_2_1_Architectuur_en_computerorganisatie']</t>
   </si>
   <si>
-    <t>['wc_1_2_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Kansrekenen_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Databases_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Databases_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Databases_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Lineaire_Algebra']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['hc_3_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>['hc_1_1_Analysemethoden_en_technieken']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
     <t>['hc_2_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_5_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Machine_Learning']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Architectuur_en_computerorganisatie']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_6_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Kansrekenen_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Lineaire_Algebra']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Interactie_ontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['hc_3_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Collectieve_Intelligentie']</t>
   </si>
 </sst>
 </file>
@@ -799,13 +799,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -819,13 +819,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -839,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -859,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -882,10 +882,10 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -902,10 +902,10 @@
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -919,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -942,19 +942,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -962,19 +962,19 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -982,19 +982,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1002,19 +1002,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1022,19 +1022,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1042,19 +1042,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
         <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1062,19 +1062,19 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1085,19 +1085,19 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1105,19 +1105,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1125,19 +1125,19 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1145,19 +1145,19 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1165,19 +1165,19 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1185,19 +1185,19 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1205,19 +1205,19 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1228,19 +1228,19 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1248,19 +1248,19 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1268,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1288,19 +1288,19 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1308,19 +1308,19 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1328,19 +1328,19 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1348,19 +1348,19 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/end_result/best_gen_alg.xlsx
+++ b/end_result/best_gen_alg.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="256" sheetId="1" r:id="rId1"/>
+    <sheet name="1653" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -64,379 +64,379 @@
     <t>15.00-17.00</t>
   </si>
   <si>
+    <t>['pr_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>['wc_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Kansrekenen_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['hc_3_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Machine_Learning']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Lineaire_Algebra']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Architectuur_en_computerorganisatie']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Databases_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Interactie_ontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Compilerbouw']</t>
+  </si>
+  <si>
     <t>['wc_1_1_Databases_2']</t>
   </si>
   <si>
+    <t>['hc_2_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Kansrekenen_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Lineaire_Algebra']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Machine_Learning']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['pr_1_4_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Analysemethoden_en_technieken']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_6_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_5_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
     <t>['wc_1_1_Data_Mining']</t>
   </si>
   <si>
-    <t>['wc_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['pr_1_5_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Interactie_ontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Moderne_Databases']</t>
+    <t>['wc_1_2_Data_Mining']</t>
   </si>
   <si>
     <t>['hc_1_1_Databases_2']</t>
   </si>
   <si>
-    <t>['pr_1_2_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Architectuur_en_computerorganisatie']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Lineaire_Algebra']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_4_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>['pr_1_2_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Machine_Learning']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Data_Mining']</t>
-  </si>
-  <si>
     <t>['pr_1_1_Project_Numerical_Recipes']</t>
   </si>
   <si>
-    <t>['pr_1_2_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Algoritmen_en_complexiteit']</t>
+    <t>['pr_1_2_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['hc_3_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Architectuur_en_computerorganisatie']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Interactie_ontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Netwerken_en_systeembeveiliging']</t>
   </si>
   <si>
     <t>['hc_1_1_Compilerbouw']</t>
   </si>
   <si>
-    <t>['wc_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Webprogrammeren_en_databases']</t>
+    <t>['wc_1_2_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Autonomous_Agents_2']</t>
   </si>
   <si>
     <t>['pr_1_1_Collectieve_Intelligentie']</t>
   </si>
   <si>
-    <t>['wc_1_3_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Kansrekenen_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Lineaire_Algebra']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_3_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Interactie_ontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Machine_Learning']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Analysemethoden_en_technieken']</t>
-  </si>
-  <si>
-    <t>['hc_3_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Kansrekenen_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Databases_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_6_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
     <t>['hc_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Architectuur_en_computerorganisatie']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Reflectie_op_de_digitale_cultuur']</t>
   </si>
 </sst>
 </file>
@@ -799,19 +799,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -819,19 +819,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -839,19 +839,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -859,19 +859,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -879,19 +879,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -899,19 +899,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -919,19 +919,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -942,19 +942,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -962,19 +962,19 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -982,19 +982,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1002,19 +1002,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1022,19 +1022,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1042,19 +1042,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1062,19 +1062,19 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1085,16 +1085,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>59</v>
@@ -1145,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>60</v>
@@ -1165,16 +1165,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>61</v>
@@ -1185,16 +1185,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>62</v>
@@ -1205,16 +1205,16 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
@@ -1228,19 +1228,19 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1248,19 +1248,19 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1268,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1288,19 +1288,19 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1308,19 +1308,19 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1328,19 +1328,19 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1348,19 +1348,19 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/end_result/best_gen_alg.xlsx
+++ b/end_result/best_gen_alg.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="1653" sheetId="1" r:id="rId1"/>
+    <sheet name="1733" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -64,379 +64,379 @@
     <t>15.00-17.00</t>
   </si>
   <si>
+    <t>['wc_1_1_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>['hc_1_1_Kansrekenen_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Data_Mining']</t>
+  </si>
+  <si>
     <t>['pr_1_1_Data_Mining']</t>
   </si>
   <si>
+    <t>['wc_1_3_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Calculus_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Machine_Learning']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Interactie_ontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_3_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Lineaire_Algebra']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_6_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Architectuur_en_computerorganisatie']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Databases_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Databases_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Compilerbouw_practicum']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Technology_for_games']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Analysemethoden_en_technieken']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Project_Genetic_Algorithms']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Interactie_ontwerp']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Kansrekenen_2']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Advanced_Heuristics']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Moderne_Databases']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Reflectie_op_de_digitale_cultuur']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Machine_Learning']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Heuristieken_1']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Heuristieken_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Technology_for_games']</t>
+  </si>
+  <si>
     <t>['wc_1_2_Webprogrammeren_en_databases']</t>
   </si>
   <si>
     <t>['hc_1_1_Calculus_2']</t>
   </si>
   <si>
+    <t>['pr_1_2_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Algoritmen_en_complexiteit']</t>
+  </si>
+  <si>
+    <t>['wc_1_1_Software_engineering']</t>
+  </si>
+  <si>
+    <t>['wc_1_2_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Architectuur_en_computerorganisatie']</t>
+  </si>
+  <si>
+    <t>['pr_1_4_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_3_1_Bioinformatica']</t>
+  </si>
+  <si>
+    <t>['wc_1_3_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
+    <t>['pr_1_3_Zoeken_sturen_en_bewegen']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Informatie_en_organisatieontwerp']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Webprogrammeren_en_databases']</t>
+  </si>
+  <si>
+    <t>['hc_2_1_Lineaire_Algebra']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Netwerken_en_systeembeveiliging']</t>
+  </si>
+  <si>
+    <t>['pr_1_5_Programmeren_in_Java_2']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Databases_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Autonomous_Agents_2']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Project_Numerical_Recipes']</t>
+  </si>
+  <si>
+    <t>['hc_1_1_Data_Mining']</t>
+  </si>
+  <si>
+    <t>['pr_1_2_Compilerbouw']</t>
+  </si>
+  <si>
+    <t>['pr_1_1_Collectieve_Intelligentie']</t>
+  </si>
+  <si>
     <t>['pr_1_1_Compilerbouw']</t>
   </si>
   <si>
-    <t>['pr_1_1_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>['wc_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Kansrekenen_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_3_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Machine_Learning']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Lineaire_Algebra']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
     <t>['pr_1_2_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Architectuur_en_computerorganisatie']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Databases_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Interactie_ontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Databases_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Kansrekenen_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Webprogrammeren_en_databases']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Lineaire_Algebra']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Heuristieken_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Machine_Learning']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Calculus_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Software_engineering']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Zoeken_sturen_en_bewegen']</t>
-  </si>
-  <si>
-    <t>['pr_1_4_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Project_Genetic_Algorithms']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Analysemethoden_en_technieken']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Reflectie_op_de_digitale_cultuur']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Technology_for_games']</t>
-  </si>
-  <si>
-    <t>['pr_1_6_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_5_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Databases_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Project_Numerical_Recipes']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Compilerbouw_practicum']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['hc_3_1_Bioinformatica']</t>
-  </si>
-  <si>
-    <t>['wc_1_1_Algoritmen_en_complexiteit']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Architectuur_en_computerorganisatie']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Informatie_en_organisatieontwerp']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Interactie_ontwerp']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Netwerken_en_systeembeveiliging']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Compilerbouw']</t>
-  </si>
-  <si>
-    <t>['wc_1_2_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_2_Programmeren_in_Java_2']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Heuristieken_1']</t>
-  </si>
-  <si>
-    <t>['wc_1_3_Data_Mining']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Moderne_Databases']</t>
-  </si>
-  <si>
-    <t>['pr_1_3_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Advanced_Heuristics']</t>
-  </si>
-  <si>
-    <t>['hc_2_1_Autonomous_Agents_2']</t>
-  </si>
-  <si>
-    <t>['pr_1_1_Collectieve_Intelligentie']</t>
-  </si>
-  <si>
-    <t>['hc_1_1_Webprogrammeren_en_databases']</t>
   </si>
 </sst>
 </file>
@@ -799,19 +799,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -819,19 +819,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -839,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -859,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -899,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -919,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -942,19 +942,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -962,19 +962,19 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -982,19 +982,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1002,19 +1002,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1022,19 +1022,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1042,19 +1042,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1062,19 +1062,19 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1085,16 +1085,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
         <v>84</v>
       </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s">
-        <v>106</v>
-      </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>59</v>
@@ -1145,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>60</v>
@@ -1165,16 +1165,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>61</v>
@@ -1185,16 +1185,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
         <v>87</v>
       </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>62</v>
@@ -1205,16 +1205,16 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
         <v>88</v>
       </c>
-      <c r="D22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
@@ -1228,19 +1228,19 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1248,19 +1248,19 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1268,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1288,19 +1288,19 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1308,19 +1308,19 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1328,19 +1328,19 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1348,19 +1348,19 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
